--- a/journalEntry.xlsx
+++ b/journalEntry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="168">
   <si>
     <t>Date</t>
   </si>
@@ -40,13 +40,19 @@
     <t>Credit</t>
   </si>
   <si>
-    <t>Receipts</t>
-  </si>
-  <si>
-    <t>201068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To record check from SARI </t>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>438217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To record PDC's for the payment of insurance policies of 5 sinotruk at LD SURIGAO site. 3/6 </t>
+  </si>
+  <si>
+    <t>5009A0</t>
+  </si>
+  <si>
+    <t>INSURANCE EXPENSE -  SURIGAO</t>
   </si>
   <si>
     <t>1001AB</t>
@@ -55,222 +61,57 @@
     <t>CASH IN BANK - SURIGAO</t>
   </si>
   <si>
-    <t>486866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To record csh reciedved from LD GLOBAL (TAWI)	</t>
-  </si>
-  <si>
-    <t>324303</t>
-  </si>
-  <si>
-    <t>To record cash recieved fron MTTD</t>
-  </si>
-  <si>
-    <t>324304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To record cash recieved from MTTD.	</t>
-  </si>
-  <si>
-    <t>Payments</t>
-  </si>
-  <si>
-    <t>438201</t>
-  </si>
-  <si>
-    <t>To record purchase of 3 sinotruk at LD SURIGAO</t>
-  </si>
-  <si>
-    <t>438221</t>
-  </si>
-  <si>
-    <t>To record payment of salaru of JIMWEL MEJIA for the period Apirl 1-15, 2022.</t>
-  </si>
-  <si>
-    <t>438222</t>
-  </si>
-  <si>
-    <t>To record payment of salary at LD SURIGAO for the period April 1-15, 2022.</t>
-  </si>
-  <si>
-    <t>1541340602</t>
-  </si>
-  <si>
-    <t>To record csh recieved from LD MBTC to LD SURIGAO.</t>
-  </si>
-  <si>
-    <t>438202</t>
-  </si>
-  <si>
-    <t>To record initial payment for the purchase of 5 sinotruk at LD SURIGAO site.</t>
-  </si>
-  <si>
-    <t>438215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To record PDC's for the payment of insurance policies of 5 sinotruk at LD SURIGAO site. 1/6 </t>
-  </si>
-  <si>
-    <t>438216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To record PDC's for the payment of insurance policies of 5 sinotruk at LD SURIGAO site. 2/6 </t>
-  </si>
-  <si>
-    <t>438217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To record PDC's for the payment of insurance policies of 5 sinotruk at LD SURIGAO site. 3/6 </t>
-  </si>
-  <si>
-    <t>438203</t>
-  </si>
-  <si>
-    <t>To record PDC for the remaining balance purchase of 5 sinotruk at LD SURIGAO site. 1/12</t>
-  </si>
-  <si>
     <t>438204</t>
   </si>
   <si>
     <t>To record PDC for the remaining balance purchase of 5 sinotruk at LD SURIGAO site. 2/12</t>
   </si>
   <si>
-    <t>8329196</t>
-  </si>
-  <si>
-    <t>To record cash recieved from MVD.</t>
-  </si>
-  <si>
-    <t>438223</t>
-  </si>
-  <si>
-    <t>To record reimbursement of 3 employees for transportation and meals at SURIGAO PROJECT.</t>
-  </si>
-  <si>
-    <t>438224</t>
-  </si>
-  <si>
-    <t>To record salary of JIMUEL MEJIA and ANGELITO RACOMA JR. for the period March 24-31, 2022 at LD SURIGAO PROJECT.</t>
-  </si>
-  <si>
-    <t>438225</t>
-  </si>
-  <si>
-    <t>To record reimbursement of travel, diesel and meals at LD SURIGAO PROJECT.</t>
-  </si>
-  <si>
-    <t>438226</t>
-  </si>
-  <si>
-    <t>To record reimbursement of travel, meals and other expenses at LD SURIGAO PROJECT.</t>
+    <t>2001ZQ</t>
+  </si>
+  <si>
+    <t>ACCOUNTS PAYABLE - AMTRAK MACHINERIES AND EQUIPMENT OPC</t>
   </si>
   <si>
     <t>General</t>
   </si>
   <si>
-    <t>438228</t>
-  </si>
-  <si>
-    <t>To record ACCRUAL OF SALARY of Rey Anthony Sabusido for the period APRIL 16-30, 2022.</t>
-  </si>
-  <si>
-    <t>438229</t>
-  </si>
-  <si>
-    <t>To record PAYMENT of salary of JIMWEL MEJIA for the period April 1-15, 2022.</t>
-  </si>
-  <si>
-    <t>438230</t>
-  </si>
-  <si>
-    <t>To set up petty cash fund at LD SURIGAO PROJECT.</t>
-  </si>
-  <si>
-    <t>438231</t>
-  </si>
-  <si>
-    <t>To record PAYMENT OF SALARY of Dennis Gabay for the period APRIL 16-30, 2022.</t>
-  </si>
-  <si>
-    <t>438232</t>
-  </si>
-  <si>
-    <t>To record food budget of LD SURIGAO PROJECT for the period covered MAY 2-6, 2022.</t>
-  </si>
-  <si>
-    <t>438233</t>
-  </si>
-  <si>
-    <t>To record food budget of LD SURIGAO PROJECT for the period covered MAY 7-13, 2022.</t>
-  </si>
-  <si>
-    <t>438234</t>
-  </si>
-  <si>
-    <t>To record payment of salary at LD SURIGAO thru ADAN MANPOWER AND GENERAL SERVICES INC.</t>
-  </si>
-  <si>
-    <t>438235</t>
-  </si>
-  <si>
-    <t>To record food budget of LD SURIGAO PROJECT for the period covered MAY 14-20, 2022.</t>
-  </si>
-  <si>
-    <t>438237</t>
-  </si>
-  <si>
-    <t>To record PAYMENT OF SALARY of Rey Anthony Sabusido for the period MAY 1-15, 2022.</t>
-  </si>
-  <si>
-    <t>438238</t>
-  </si>
-  <si>
-    <t>To record payment of salary of JIMWEL MEJIA for the period MAY 1-15, 2022.</t>
-  </si>
-  <si>
-    <t>438239</t>
-  </si>
-  <si>
-    <t>To record PAYMENT OF SALARY of Dennis Gabay for the period MAY 1-15, 2022.</t>
-  </si>
-  <si>
-    <t>438240</t>
-  </si>
-  <si>
-    <t>To record food budget of LD SURIGAO PROJECT for the period covered MAY 21-27, 2022.</t>
-  </si>
-  <si>
-    <t>438242</t>
-  </si>
-  <si>
-    <t>To record food budget of LD SURIGAO PROJECT for the period covered MAY 28 to JUNE 3, 2022.</t>
-  </si>
-  <si>
-    <t>438244</t>
-  </si>
-  <si>
-    <t>To record payment of salary at LD SURIGAO thru ADAN MANPOWER AND GENERAL SERVICES INC for the period MAY 1-15, 2022.</t>
-  </si>
-  <si>
     <t>438245</t>
   </si>
   <si>
     <t>To record food budget of LD SURIGAO PROJECT for the period covered JUNE 4-10, 2022.</t>
   </si>
   <si>
+    <t>1007BA</t>
+  </si>
+  <si>
+    <t>ACCOUNTS RECEIVABLE - FB SURIGAO</t>
+  </si>
+  <si>
     <t>438246</t>
   </si>
   <si>
     <t>To record payment of salary of JIMWEL MEJIA for the period MAY 16-31, 2022.</t>
   </si>
   <si>
+    <t xml:space="preserve">5014B3 </t>
+  </si>
+  <si>
+    <t>OUTSIDE SERVICES - SURIGAO</t>
+  </si>
+  <si>
     <t>438247</t>
   </si>
   <si>
     <t>To record PAYMENT OF SALARY of Rey Anthony Sabusido for the period MAY 16-31, 2022.</t>
   </si>
   <si>
+    <t>2001Z3</t>
+  </si>
+  <si>
+    <t>ACCRUED PAYROLL - SURIGAO</t>
+  </si>
+  <si>
     <t>438248</t>
   </si>
   <si>
@@ -289,6 +130,12 @@
     <t>To record cash received from MVD.</t>
   </si>
   <si>
+    <t>2001C3</t>
+  </si>
+  <si>
+    <t>ACCOUNTS PAYABLE - (MVD) SURIGAO</t>
+  </si>
+  <si>
     <t>438251</t>
   </si>
   <si>
@@ -304,12 +151,36 @@
     <t>To record payment of salary at LD SURIGAO thru ADAN MANPOWER AND GENERAL SERVICES INC for the period MAY 16-31, 2022.</t>
   </si>
   <si>
+    <t>5005A0</t>
+  </si>
+  <si>
+    <t>ADMIN FEE - SURIGAO</t>
+  </si>
+  <si>
+    <t>2003A0</t>
+  </si>
+  <si>
+    <t>WTP EXPANDED PAYABLE - (2%) SURIGAO</t>
+  </si>
+  <si>
     <t>438254</t>
   </si>
   <si>
     <t xml:space="preserve">To record PAYMENT OF SALARY of Rey Anthony Sabusido for the period JUNE 1-15, 2022.	</t>
   </si>
   <si>
+    <t>5005AD</t>
+  </si>
+  <si>
+    <t>CFB SALARIES AND WAGES -  SURIGAO</t>
+  </si>
+  <si>
+    <t>5008AD</t>
+  </si>
+  <si>
+    <t>DEMINIMIS - SURIGAO</t>
+  </si>
+  <si>
     <t>438255</t>
   </si>
   <si>
@@ -328,6 +199,12 @@
     <t>To record payment of LD SURIGAO incentives for the period MAY 1-15, 2022.</t>
   </si>
   <si>
+    <t>5009A3</t>
+  </si>
+  <si>
+    <t>INCENTIVES - SURIGAO</t>
+  </si>
+  <si>
     <t>438258</t>
   </si>
   <si>
@@ -352,18 +229,42 @@
     <t xml:space="preserve">To record purchase of 1 BN CLG922E LUIGONG HYDRAULIC EXCAVATOR at LD SURIGAO PROJECT. FULL PAYMENT.	</t>
   </si>
   <si>
+    <t>1031B0</t>
+  </si>
+  <si>
+    <t>MACHINERY EQUIPMENT - SURIGAO</t>
+  </si>
+  <si>
     <t>438263</t>
   </si>
   <si>
     <t>To record payment of delivery fee of LUIGONG EXCAVATOR to PGMC SURIGAO PROJECT.</t>
   </si>
   <si>
+    <t>5026A0</t>
+  </si>
+  <si>
+    <t>TRANSPO/TRAVEL - SURIGAO</t>
+  </si>
+  <si>
     <t>438264</t>
   </si>
   <si>
     <t>To record purchase of washing machine, freezer and water dispenser. Life (2 years)</t>
   </si>
   <si>
+    <t>1031A0</t>
+  </si>
+  <si>
+    <t>FURNITURE &amp; FIXTURE -  SURIGAO</t>
+  </si>
+  <si>
+    <t>1025A0</t>
+  </si>
+  <si>
+    <t>OA - VAT INPUT - SURIGAO</t>
+  </si>
+  <si>
     <t>438265</t>
   </si>
   <si>
@@ -376,18 +277,36 @@
     <t>To record payment for printing of uniforms at LD SURIGAO PROJECT.</t>
   </si>
   <si>
+    <t>5015A0</t>
+  </si>
+  <si>
+    <t>OFFICE SUPPLIES - SURIGAO</t>
+  </si>
+  <si>
     <t>438267</t>
   </si>
   <si>
     <t xml:space="preserve">To record purchase of bucket tooth and fuel water separator at LD SURIGAO PROJECT.	</t>
   </si>
   <si>
+    <t>5019B0</t>
+  </si>
+  <si>
+    <t>REPAIR AND MAINTENANCE - SURIGAO</t>
+  </si>
+  <si>
     <t>438268</t>
   </si>
   <si>
     <t>To record various parts at LD SURIGAO PROJECT.</t>
   </si>
   <si>
+    <t>5012D1</t>
+  </si>
+  <si>
+    <t>MECHANICAL SUPPLIES - SURIGAO</t>
+  </si>
+  <si>
     <t>438270</t>
   </si>
   <si>
@@ -400,16 +319,29 @@
     <t>To record payment of salary at LD SURIGAO thru ADAN MANPOWER AND GENERAL SERVICES INC for the period JUNE 1-15, 2022.</t>
   </si>
   <si>
-    <t>438236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To record PCF REPLENISHMENT of LJBO for the period April 1 to May 7, 2022 at LD SURIGAO SITE.	</t>
-  </si>
-  <si>
-    <t>438243</t>
-  </si>
-  <si>
-    <t>To record PCF REPLENISHMENT of LJBO for the period May 9-23, 2022 at LD SURIGAO SITE.</t>
+    <t>JV-438226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To record reimbursement of travel, meals and other expenses at LD SURIGAO PROJECT. To record VAT INPUT.
+</t>
+  </si>
+  <si>
+    <t>JV-438225</t>
+  </si>
+  <si>
+    <t>To record reimbursement of travel, diesel and meals at LD SURIGAO PROJECT. To record VAT INPUT.</t>
+  </si>
+  <si>
+    <t>2002A0</t>
+  </si>
+  <si>
+    <t>VAT OUTPUT - SURIGAO</t>
+  </si>
+  <si>
+    <t>5008A0</t>
+  </si>
+  <si>
+    <t>GFO - SURIGAO</t>
   </si>
   <si>
     <t>438249</t>
@@ -418,6 +350,12 @@
     <t>To record PCF REPLENISHMENT of LJBO for the period May 23 to June 1, 2022 at LD SURIGAO SITE.</t>
   </si>
   <si>
+    <t>1004CB</t>
+  </si>
+  <si>
+    <t>ACCOUNTS RECEIVABLE - LOUIE JEAN B. OPALLA (SURIGAO)</t>
+  </si>
+  <si>
     <t>438252</t>
   </si>
   <si>
@@ -436,16 +374,28 @@
     <t>To record PCF REPLENISHMENT of LJBO for the period June 13-24, 2022 at LD SURIGAO SITE.</t>
   </si>
   <si>
-    <t>GJ10485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To record Interest Income for the month of April 2022.	</t>
-  </si>
-  <si>
-    <t>GJ10486</t>
-  </si>
-  <si>
-    <t>To record Interest Income for the month of May 2022.</t>
+    <t>GJ10484</t>
+  </si>
+  <si>
+    <t>To record depreciation for the Month of June 2022. LD SURIGAO</t>
+  </si>
+  <si>
+    <t>5008C2</t>
+  </si>
+  <si>
+    <t>DEPRECIATION EXPENSE - OPERATION SURIGAO</t>
+  </si>
+  <si>
+    <t>1031C1</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECIATION - TE SURIGAO</t>
+  </si>
+  <si>
+    <t>1031B1</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECIATION - ME SURIGAO</t>
   </si>
   <si>
     <t>GJ10487</t>
@@ -454,106 +404,123 @@
     <t>To record Interest Income for the month of June 2022.</t>
   </si>
   <si>
-    <t>438272</t>
-  </si>
-  <si>
-    <t>To record PAYMENT OF SALARY of Rey Anthony Sabusido for the period JUNE 16-30, 2022.</t>
-  </si>
-  <si>
-    <t>438273</t>
-  </si>
-  <si>
-    <t>To record PAYMENT OF SALARY of Dennis Gabay for the period JUNE 16-30, 2022.</t>
-  </si>
-  <si>
-    <t>438274</t>
-  </si>
-  <si>
-    <t>To record PCF REPLENISHMENT of LJBO for the period June 20 to July 1, 2022 at LD SURIGAO SITE.</t>
-  </si>
-  <si>
-    <t>438275</t>
-  </si>
-  <si>
-    <t>To record purchase of various parts at LD SURIGAO site.</t>
-  </si>
-  <si>
-    <t>438276</t>
-  </si>
-  <si>
-    <t>To record payment of LD SURIGAO driver's incentives for the period JUNE 16-30, 2022.</t>
-  </si>
-  <si>
-    <t>438277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To record purchase of 6 sets of fog lamp at LD SURIGAO site.	</t>
-  </si>
-  <si>
-    <t>438278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To record purchase of 10 pieces fog lamp at LD SURIGAO site.	</t>
-  </si>
-  <si>
-    <t>438279</t>
-  </si>
-  <si>
-    <t>To record purchase of 10 pcs empty container at LD SURIGAO site.</t>
-  </si>
-  <si>
-    <t>438280</t>
-  </si>
-  <si>
-    <t>To record purchase of 10 revolving light at LD SURIGAO site.</t>
-  </si>
-  <si>
-    <t>438281</t>
-  </si>
-  <si>
-    <t>To record purchase of intercooler and exhaust brake switch at LD SURIGAO site.</t>
-  </si>
-  <si>
-    <t>438284</t>
-  </si>
-  <si>
-    <t>To record purchase of 4pcs L300 tire at LD SURIGAO site.</t>
-  </si>
-  <si>
-    <t>438285</t>
-  </si>
-  <si>
-    <t>To record payment of salary of JIMWEL MEJA for the period JUNE 16-30, 2022.</t>
-  </si>
-  <si>
-    <t>438286</t>
-  </si>
-  <si>
-    <t>To record food budget of LD SURIGAO PROJECT for the period covered JULY 9-15, 2022.</t>
-  </si>
-  <si>
-    <t>438287</t>
-  </si>
-  <si>
-    <t>To record PCF REPLENISHMENT of LJBO for the period June 25 to July 8, 2022 at LD SURIGAO SITE.</t>
-  </si>
-  <si>
-    <t>438288</t>
-  </si>
-  <si>
-    <t>To record PCF REPLENISHMENT of LJBO for the period June 28-29,2022 at LD SURIGAO SITE.</t>
-  </si>
-  <si>
-    <t>438292</t>
-  </si>
-  <si>
-    <t>To record food budget of LD SURIGAO PROJECT for the period covered JULY 16-22, 2022.</t>
-  </si>
-  <si>
-    <t>438293</t>
-  </si>
-  <si>
-    <t>To record payment of salary at LD SURIGAO thru ADAN MANPOWER AND GENERAL SERVICES INC for the period JUNE 16-30, 2022.</t>
+    <t>4002A1</t>
+  </si>
+  <si>
+    <t>INTEREST INCOME - SURIGAO</t>
+  </si>
+  <si>
+    <t>JV-438272</t>
+  </si>
+  <si>
+    <t>To record ACCRUAL OF SALARY of Rey Anthony Sabusido for the period JUNE 16-30, 2022.</t>
+  </si>
+  <si>
+    <t>2005A5</t>
+  </si>
+  <si>
+    <t>SSS LOAN PAYABLE - SURIGAO</t>
+  </si>
+  <si>
+    <t>2005AA</t>
+  </si>
+  <si>
+    <t>SSS PAYABLE - LD MAIN/TAWI</t>
+  </si>
+  <si>
+    <t>2007AA</t>
+  </si>
+  <si>
+    <t>PHIC PAYABLE - LD MAIN/TAWI</t>
+  </si>
+  <si>
+    <t>2006AA</t>
+  </si>
+  <si>
+    <t>HDMF PAYABLE - LD MAIN/TAWI</t>
+  </si>
+  <si>
+    <t>JV-438273</t>
+  </si>
+  <si>
+    <t>To record ACCRUAL OF SALARY of Dennis Gabay for the period JUNE 16-30, 2022.</t>
+  </si>
+  <si>
+    <t>507130</t>
+  </si>
+  <si>
+    <t>To record purchase of 1UNIT BRAND NEW ISUZU D-MAX 4X4 LT M/T 3.0L. Life ( 5 years)</t>
+  </si>
+  <si>
+    <t>1031C0</t>
+  </si>
+  <si>
+    <t>TRANSPORTATION EQUIPMENT - SURIGAO</t>
+  </si>
+  <si>
+    <t>2001V</t>
+  </si>
+  <si>
+    <t>LOANS PAYABLE - BDO</t>
+  </si>
+  <si>
+    <t>1001A</t>
+  </si>
+  <si>
+    <t>CASH IN BANK - TAWI2X</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Sales-003</t>
+  </si>
+  <si>
+    <t>June 1-15, 2022 Hauling from MRMJ</t>
+  </si>
+  <si>
+    <t>1010A1</t>
+  </si>
+  <si>
+    <t>ACCOUNTS RECEIVABLE - MRMJ (SURIGAO)</t>
+  </si>
+  <si>
+    <t>1025A1</t>
+  </si>
+  <si>
+    <t>CREDITABLE WITHHOLODING TAX - SURIGAO</t>
+  </si>
+  <si>
+    <t>4001A0</t>
+  </si>
+  <si>
+    <t>SALES - MRMJ (SURIGAO)</t>
+  </si>
+  <si>
+    <t>Sales-004</t>
+  </si>
+  <si>
+    <t>June 16-30, 2022 Hauling from MRMJ</t>
+  </si>
+  <si>
+    <t>APV-0001</t>
+  </si>
+  <si>
+    <t>June 1-15, 2022 diesel consumption for operation
+14,242 @ 84.8250/ltr</t>
+  </si>
+  <si>
+    <t>2001ZR</t>
+  </si>
+  <si>
+    <t>ACCOUNTS PAYABLE - MRMJ-SURIGAO</t>
+  </si>
+  <si>
+    <t>APV-0002</t>
+  </si>
+  <si>
+    <t>June 16-30, 2022 diesel consumption for operation
+10,430 @ 84.8250/ltr</t>
   </si>
 </sst>
 </file>
@@ -885,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -919,7 +886,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>44669</v>
+        <v>44734</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -937,7 +904,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>2000000</v>
+        <v>91250</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -945,33 +912,33 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>44669</v>
+        <v>44734</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3">
-        <v>9832500</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>91250</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>44669</v>
+        <v>44734</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -983,13 +950,13 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>194500</v>
+        <v>921320</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -997,33 +964,33 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>44669</v>
+        <v>44734</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>1773500</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>921320</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>44669</v>
+        <v>44714</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1035,47 +1002,47 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>19950</v>
       </c>
       <c r="H6">
-        <v>8806500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>44671</v>
+        <v>44714</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15000</v>
+        <v>19950</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>44671</v>
+        <v>44715</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1087,47 +1054,47 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="H8">
-        <v>28871.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>44672</v>
+        <v>44715</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>44672</v>
+        <v>44715</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1139,47 +1106,47 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>22391.7</v>
       </c>
       <c r="H10">
-        <v>4220000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>44673</v>
+        <v>44715</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>91250</v>
+        <v>22391.7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>44703</v>
+        <v>44715</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -1191,117 +1158,117 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>10108.13</v>
       </c>
       <c r="H12">
-        <v>91250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>44734</v>
+        <v>44715</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>91250</v>
+        <v>10108.13</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>44703</v>
+        <v>44720</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>22260</v>
       </c>
       <c r="H14">
-        <v>921320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>44734</v>
+        <v>44720</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>921320</v>
+        <v>22260</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>44676</v>
+        <v>44725</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>10000000</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1309,360 +1276,360 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>44676</v>
+        <v>44725</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7339</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>44676</v>
+        <v>44727</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>24150</v>
       </c>
       <c r="H18">
-        <v>11545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>44676</v>
+        <v>44727</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20623</v>
+        <v>24150</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>44676</v>
+        <v>44728</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>5400000</v>
       </c>
       <c r="H20">
-        <v>11198.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>44692</v>
+        <v>44728</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22391.7</v>
+        <v>5400000</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>44692</v>
+        <v>44732</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>200021.92</v>
       </c>
       <c r="H22">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>44692</v>
+        <v>44732</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>22402.45</v>
       </c>
       <c r="H23">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>44692</v>
+        <v>44732</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14106.25</v>
+        <v>400.04</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>44692</v>
+        <v>44732</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7650</v>
+        <v>222024.33</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>44692</v>
+        <v>44733</v>
       </c>
       <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>24308.33</v>
       </c>
       <c r="H26">
-        <v>10710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>44692</v>
+        <v>44733</v>
       </c>
       <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H27">
-        <v>99367.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>44698</v>
+        <v>44733</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>12600</v>
+        <v>26250</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>44700</v>
+        <v>44733</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="H29">
-        <v>26250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>44700</v>
+        <v>44733</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1673,259 +1640,259 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>44700</v>
+        <v>44733</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>10935.83</v>
       </c>
       <c r="H31">
-        <v>10898.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>44700</v>
+        <v>44733</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H32">
-        <v>14280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>44707</v>
+        <v>44733</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14280</v>
+        <v>12877.5</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>44709</v>
+        <v>44734</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1770</v>
       </c>
       <c r="H34">
-        <v>67050.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>44714</v>
+        <v>44734</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>19950</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>44715</v>
+        <v>44734</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>27750</v>
       </c>
       <c r="H36">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>44715</v>
+        <v>44734</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>22391.7</v>
+        <v>27750</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>44715</v>
+        <v>44734</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>45525</v>
       </c>
       <c r="H38">
-        <v>10108.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>44720</v>
+        <v>44734</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>22260</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>44725</v>
+        <v>44734</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G40">
-        <v>10000000</v>
+        <v>24780</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1933,51 +1900,51 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>44727</v>
+        <v>44734</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>24150</v>
+        <v>24780</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>44728</v>
+        <v>44734</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G42">
-        <v>5400000</v>
+        <v>4230000</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -1985,288 +1952,288 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>44732</v>
+        <v>44734</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>222024.33</v>
+        <v>4230000</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>115000</v>
       </c>
       <c r="H44">
-        <v>26250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>15000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>44733</v>
+        <v>44722</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>23822.1</v>
       </c>
       <c r="H46">
-        <v>12877.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>44734</v>
+        <v>44722</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2858.65</v>
       </c>
       <c r="H47">
-        <v>1770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>44734</v>
+        <v>44722</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>27750</v>
+        <v>26680.75</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>11920.54</v>
       </c>
       <c r="H49">
-        <v>45525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1430.46</v>
       </c>
       <c r="H50">
-        <v>24780</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>4230000</v>
+        <v>13351</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H52">
-        <v>115000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>44722</v>
+        <v>44735</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>26680.75</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2274,25 +2241,25 @@
         <v>44735</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>3928.57</v>
       </c>
       <c r="H54">
-        <v>13351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2300,25 +2267,25 @@
         <v>44735</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>471.43</v>
       </c>
       <c r="H55">
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2326,19 +2293,19 @@
         <v>44735</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2352,256 +2319,256 @@
         <v>44735</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>27678.57</v>
       </c>
       <c r="H57">
-        <v>31000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>44741</v>
+        <v>44735</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>3321.43</v>
       </c>
       <c r="H58">
-        <v>25410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>375103.08</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>44698</v>
+        <v>44741</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>25410</v>
       </c>
       <c r="H60">
-        <v>17966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>44707</v>
+        <v>44741</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>19783</v>
+        <v>25410</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>44715</v>
+        <v>44742</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>337930.7</v>
       </c>
       <c r="H62">
-        <v>18049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>44728</v>
+        <v>44742</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>37848.24</v>
       </c>
       <c r="H63">
-        <v>13954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>44734</v>
+        <v>44742</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>19919</v>
+        <v>675.86</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>19919</v>
+        <v>375103.08</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>44681</v>
+        <v>44742</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G66">
-        <v>129.8</v>
+        <v>1035.18</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2609,28 +2576,28 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G67">
-        <v>283.34</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1035.18</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2638,22 +2605,22 @@
         <v>44742</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="G68">
-        <v>481.94</v>
+        <v>925.1799999999999</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2661,444 +2628,1120 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>22391.7</v>
+        <v>925.1799999999999</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>44747</v>
+        <v>44715</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>18049</v>
       </c>
       <c r="H70">
-        <v>9137.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>44747</v>
+        <v>44715</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>14959</v>
+        <v>18049</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>44747</v>
+        <v>44728</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>13954</v>
       </c>
       <c r="H72">
-        <v>98700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>44747</v>
+        <v>44728</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>30800</v>
+        <v>13954</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>44747</v>
+        <v>44734</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>19919</v>
       </c>
       <c r="H74">
-        <v>3360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>44747</v>
+        <v>44734</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>5200</v>
+        <v>19919</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>44747</v>
+        <v>44741</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>19919</v>
       </c>
       <c r="H76">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>44747</v>
+        <v>44741</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>6000</v>
+        <v>19919</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>211465.33</v>
       </c>
       <c r="H78">
-        <v>40700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>122500</v>
       </c>
       <c r="H79">
-        <v>10400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>44750</v>
+        <v>44742</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>15000</v>
+        <v>211465.33</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>44750</v>
+        <v>44742</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>27300</v>
+        <v>122500</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>44750</v>
+        <v>44742</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>481.94</v>
       </c>
       <c r="H82">
-        <v>15516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>44754</v>
+        <v>44742</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>16142</v>
+        <v>481.94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>44756</v>
+        <v>44742</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>24308.33</v>
       </c>
       <c r="H84">
-        <v>25410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>44760</v>
+        <v>44742</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1941.67</v>
       </c>
       <c r="H85">
-        <v>362639.5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>44742</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" t="s">
+        <v>133</v>
+      </c>
+      <c r="F86" t="s">
+        <v>134</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>1845.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>44742</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" t="s">
+        <v>135</v>
+      </c>
+      <c r="F87" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>44742</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" t="s">
+        <v>137</v>
+      </c>
+      <c r="F88" t="s">
+        <v>138</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>787.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>44742</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" t="s">
+        <v>140</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>44742</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>22391.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>44742</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D91" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" t="s">
+        <v>52</v>
+      </c>
+      <c r="G91">
+        <v>8320.83</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>44742</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" t="s">
+        <v>142</v>
+      </c>
+      <c r="E92" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92">
+        <v>1941.67</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>44742</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>141</v>
+      </c>
+      <c r="D93" t="s">
+        <v>142</v>
+      </c>
+      <c r="E93" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" t="s">
+        <v>136</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>44742</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" t="s">
+        <v>142</v>
+      </c>
+      <c r="E94" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" t="s">
+        <v>138</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>44742</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" t="s">
+        <v>140</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>44742</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>141</v>
+      </c>
+      <c r="D96" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>9317.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>44723</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" t="s">
+        <v>145</v>
+      </c>
+      <c r="F97" t="s">
+        <v>146</v>
+      </c>
+      <c r="G97">
+        <v>1238000</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>44723</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F98" t="s">
+        <v>148</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>1114200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>44723</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" t="s">
+        <v>149</v>
+      </c>
+      <c r="F99" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>123800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>44727</v>
+      </c>
+      <c r="B100" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" t="s">
+        <v>153</v>
+      </c>
+      <c r="E100" t="s">
+        <v>154</v>
+      </c>
+      <c r="F100" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100">
+        <v>1418964.41</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>44727</v>
+      </c>
+      <c r="B101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E101" t="s">
+        <v>156</v>
+      </c>
+      <c r="F101" t="s">
+        <v>157</v>
+      </c>
+      <c r="G101">
+        <v>25799.35</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>44727</v>
+      </c>
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" t="s">
+        <v>106</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>154796.12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>44727</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" t="s">
+        <v>158</v>
+      </c>
+      <c r="F103" t="s">
+        <v>159</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1289967.64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>44742</v>
+      </c>
+      <c r="B104" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104" t="s">
+        <v>161</v>
+      </c>
+      <c r="E104" t="s">
+        <v>154</v>
+      </c>
+      <c r="F104" t="s">
+        <v>155</v>
+      </c>
+      <c r="G104">
+        <v>2315008.58</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>44742</v>
+      </c>
+      <c r="B105" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" t="s">
+        <v>160</v>
+      </c>
+      <c r="D105" t="s">
+        <v>161</v>
+      </c>
+      <c r="E105" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" t="s">
+        <v>157</v>
+      </c>
+      <c r="G105">
+        <v>42091.07</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>44742</v>
+      </c>
+      <c r="B106" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" t="s">
+        <v>160</v>
+      </c>
+      <c r="D106" t="s">
+        <v>161</v>
+      </c>
+      <c r="E106" t="s">
+        <v>105</v>
+      </c>
+      <c r="F106" t="s">
+        <v>106</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>252546.39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>44742</v>
+      </c>
+      <c r="B107" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" t="s">
+        <v>160</v>
+      </c>
+      <c r="D107" t="s">
+        <v>161</v>
+      </c>
+      <c r="E107" t="s">
+        <v>158</v>
+      </c>
+      <c r="F107" t="s">
+        <v>159</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>2104553.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>44727</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" t="s">
+        <v>107</v>
+      </c>
+      <c r="F108" t="s">
+        <v>108</v>
+      </c>
+      <c r="G108">
+        <v>1146737.65</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>44727</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" t="s">
+        <v>162</v>
+      </c>
+      <c r="D109" t="s">
+        <v>163</v>
+      </c>
+      <c r="E109" t="s">
+        <v>164</v>
+      </c>
+      <c r="F109" t="s">
+        <v>165</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1146737.65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>44727</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" t="s">
+        <v>167</v>
+      </c>
+      <c r="E110" t="s">
+        <v>107</v>
+      </c>
+      <c r="F110" t="s">
+        <v>108</v>
+      </c>
+      <c r="G110">
+        <v>853824.75</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>44727</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111" t="s">
+        <v>167</v>
+      </c>
+      <c r="E111" t="s">
+        <v>164</v>
+      </c>
+      <c r="F111" t="s">
+        <v>165</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>853824.75</v>
       </c>
     </row>
   </sheetData>
